--- a/List001.xlsx
+++ b/List001.xlsx
@@ -19,9 +19,385 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>adapt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adopt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>announce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>announcement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>announcer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pronunciation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pronounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pronounced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pronoun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accounting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterfeit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterculture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countermeasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countpart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counteract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterbalance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encounter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counsel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>council</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>calm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>climb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>claim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acclaim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclaim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclaimation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reclaim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proclaim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>procelain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applaud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plausible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emigrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immigrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immigrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>migrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dessert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pretext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testimony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ascertainty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncertainty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncertain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certainly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roughly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thorough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>through</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>although</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whereas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reassure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>previous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>premium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prestige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esteem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -347,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -363,6 +739,476 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
